--- a/flows/FALN_fund_flow_data.xlsx
+++ b/flows/FALN_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1943"/>
+  <dimension ref="A1:B1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19865,6 +19865,126 @@
         <v>-14.565155</v>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1946" t="n">
+        <v>-26.4699</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1953" t="n">
+        <v>10.62948</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1955" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
